--- a/biology/Zoologie/Baerida/Baerida.xlsx
+++ b/biology/Zoologie/Baerida/Baerida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baerida est un ordre d'animaux de l'embranchement des éponges (les sont éponges des animaux sans organes ou appareils bien définis).
 Il s'agit de Calcaronea dont le squelette est composé exclusivement de microdiactines, ou dans lequel les microdiactines constituent exclusivement ou de façon prédominante un secteur spécifique du squelette.Des spicules grands ou géants sont fréquemment présents dans le squelette cortical, à partir de laquelle ils peuvent partiellement ou totalement envahir le choanoderme.
@@ -513,7 +525,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS:
 famille Baeriidae Borojevic, Boury-Esnault et Vacelet, 2000
